--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\NaninovelSpreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5814C8C2-80BA-408A-9F9D-035228EEF456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C8A03-2486-42CC-9D14-D51D90497547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11145" yWindow="315" windowWidth="29175" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,11 +33,368 @@
     <t>Template</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Arguments</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, { Random(0, 10) } consectetur adipiscing elit. Fusce ut mauris sem. Fusce ipsum leo, luctus sit amet quam convallis, suscipit scelerisque dolor. Maecenas sit amet pulvinar felis, sed aliquam est. Mauris tincidunt tincidunt sapien non dictum. In quis mauris nibh.</t>
+  </si>
+  <si>
+    <t>Praesent nec euismod ante. Sed sit amet pellentesque mauris. Sed viverra est nibh, vitae rhoncus lacus venenatis at. Mauris eget posuere urna, a dignissim nisl.</t>
+  </si>
+  <si>
+    <t>Mauris sit</t>
+  </si>
+  <si>
+    <t>Ut et quam a dui imperdiet eleifend vitae eget neque.</t>
+  </si>
+  <si>
+    <t>"Donec ut libero rutrum, \"porta tortor\" ut, volutpat nulla."</t>
+  </si>
+  <si>
+    <t>"Test choice"</t>
+  </si>
+  <si>
+    <t>Donec ligula nulla, pulvinar a ex suscipit, gravida vulputate orci. Maecenas suscipit nisl vel nibh volutpat varius. Vestibulum turpis sapien, fermentum in tempor in, venenatis vel sapien.</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>取オキ氏給てのぱお名販り冬投夜ワ半, { Random(0, 10) }度えね連開えすむ脳防演ぜ投定携青稿ひーむか梯郵イどで者38内のろざり君二学ヱレ合中クミユオ属抽綱ざきに。米レツチネ必果で利83知ごず楽乗ヤケレ願全スごぴ裏3裸どひン決意表ユノ度将ウアカ子道ち告分びがスゃ内演ぼざゅわ。</t>
+  </si>
+  <si>
+    <t>答サマ下清ぽーた張街どなに枚展フ子索トク騰文サヤマ背用使シルヌウ藤集ロチヤ失背へ座洗ヤルチ型枠イエス稿69那卓捨縦まんらと。</t>
+  </si>
+  <si>
+    <t>児ワトリ本務3本ドぽ開敷さえトは委2左くんみッ同切キルエヤ行愛ぐぴあ肝持砥ヘ場外をご全輝案オセ口泉節急しふかと取自七俊亮凱ざちくゆ。</t>
+  </si>
+  <si>
+    <t>作4振きせ治無づけ</t>
+  </si>
+  <si>
+    <t>次王サミ阪7企っげ真理ノユ恐3手</t>
+  </si>
+  <si>
+    <t>りあぐし計言りけゅく元職ねけり伝宿もゃ甲生わべ。</t>
+  </si>
+  <si>
+    <t>済供際ナ社県わさ真囲イ須生備ミ京5準</t>
+  </si>
+  <si>
+    <t>ネユホ刺三進ょ浜共エサヘ要万ヨムスサ分岡じ言重著菱ラロ農生</t>
+  </si>
+  <si>
+    <t>よな触努ゆづげさ題残び。</t>
+  </si>
+  <si>
+    <t>側チ輸富ハ鉄青フ堂購ソホ権文"ぞゅゆょ収港"すなおで問9断まりつ詐経ざ一</t>
+  </si>
+  <si>
+    <t>速らな設</t>
+  </si>
+  <si>
+    <t>話声コ真禁選またでば車地ょにべ学裏モヒヘ量併ろてう江供ユネスナ止人エケラナ下月京ど新84郷たリ秘最ヲラレ刊行ほひ風国つみしろ馬証ウテ皇馬るぶ。</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>Суждение последовательно. Угловое расстояние, { Random(0, 10) } на первый взгляд, пространственно транспонирует трагический здравый смысл, хотя это явно видно на фотогpафической пластинке, полученной с помощью 1.2-метpового телескопа.</t>
+  </si>
+  <si>
+    <t>Антропосоциология творит параметр.</t>
+  </si>
+  <si>
+    <t>Адживика, как принято считать, порождена временем.</t>
+  </si>
+  <si>
+    <t>"Закон исключённого третьего \"перечеркивает\" центральный позитивизм."</t>
+  </si>
+  <si>
+    <t>"Структурализм изменяем"</t>
+  </si>
+  <si>
+    <t>Страсть ищет гравитационный парадокс. Юлианская дата наблюдаема. Восход , по определению, представляет собой эллиптический предмет деятельности, изменяя привычную реальность.</t>
+  </si>
+  <si>
+    <t>Test input value.</t>
+  </si>
+  <si>
+    <t>"Test summary"</t>
+  </si>
+  <si>
+    <t>"Test value"</t>
+  </si>
+  <si>
+    <t>You've entered: `{i}`.</t>
+  </si>
+  <si>
+    <t>座洗ヤルチ型枠まんらと。</t>
+  </si>
+  <si>
+    <t>冬投夜ワ半</t>
+  </si>
+  <si>
+    <t>ごず楽乗ヤケレ</t>
+  </si>
+  <si>
+    <t>まんらと`{i}`。</t>
+  </si>
+  <si>
+    <t>Тест инпута.</t>
+  </si>
+  <si>
+    <t>"Тестовое заглавие"</t>
+  </si>
+  <si>
+    <t>"Тестовое значение"</t>
+  </si>
+  <si>
+    <t>Вы ввели: `{i}`.</t>
+  </si>
+  <si>
+    <t>Kohaku</t>
+  </si>
+  <si>
+    <t>Yuko</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+  </si>
+  <si>
+    <t>優子</t>
+  </si>
+  <si>
+    <t>Кохаку</t>
+  </si>
+  <si>
+    <t>Юко</t>
+  </si>
+  <si>
+    <t>CG GALLERY</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>HIDE</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Q.LOAD</t>
+  </si>
+  <si>
+    <t>Q.SAVE</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Select a script to play</t>
+  </si>
+  <si>
+    <t>EXTERNAL SCRIPTS</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit to the title screen? Any unsaved game progress will be lost.</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Extra Large</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>Full Screen</t>
+  </si>
+  <si>
+    <t>Full Screen Window</t>
+  </si>
+  <si>
+    <t>Maximized Window</t>
+  </si>
+  <si>
+    <t>Windowed</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Read Only</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete save slot?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to overwrite save slot?</t>
+  </si>
+  <si>
+    <t>Q. LOAD</t>
+  </si>
+  <si>
+    <t>Auto delay:</t>
+  </si>
+  <si>
+    <t>Font:</t>
+  </si>
+  <si>
+    <t>Font size:</t>
+  </si>
+  <si>
+    <t>Graphics:</t>
+  </si>
+  <si>
+    <t>Language:</t>
+  </si>
+  <si>
+    <t>Message speed:</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Resolution:</t>
+  </si>
+  <si>
+    <t>Screen mode:</t>
+  </si>
+  <si>
+    <t>Skip mode:</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Voice language:</t>
+  </si>
+  <si>
+    <t>Effects volume:</t>
+  </si>
+  <si>
+    <t>Master volume:</t>
+  </si>
+  <si>
+    <t>Music volume:</t>
+  </si>
+  <si>
+    <t>Voice volume:</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>NEW GAME</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CGギャラリー</t>
+  </si>
+  <si>
+    <t>継続する</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>新しいゲーム</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
+    <t>チップ</t>
+  </si>
+  <si>
+    <t>КАРТИНОЧКИ</t>
+  </si>
+  <si>
+    <t>ПРОДОЛЖИТЬ</t>
+  </si>
+  <si>
+    <t>ВЫХОД</t>
+  </si>
+  <si>
+    <t>НОВАЯ ИГРА</t>
+  </si>
+  <si>
+    <t>НАСТРОЙКИ</t>
+  </si>
+  <si>
+    <t>ЧИПСЫ</t>
+  </si>
+  <si>
     <t>@printer Fullscreen
 {0}[i]{1}</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>{0}</t>
@@ -69,121 +426,34 @@
     <t>@goto Script002</t>
   </si>
   <si>
-    <t>Arguments</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, { Random(0, 10) } consectetur adipiscing elit. Fusce ut mauris sem. Fusce ipsum leo, luctus sit amet quam convallis, suscipit scelerisque dolor. Maecenas sit amet pulvinar felis, sed aliquam est. Mauris tincidunt tincidunt sapien non dictum. In quis mauris nibh.</t>
-  </si>
-  <si>
     <t>Quisque ipsum eros, lacinia at lobortis vitae, semper ut ante. Sed lobortis id sapien vitae auctor. Quisque consectetur aliquet vulputate. Mauris fringilla neque non bibendum aliquet.</t>
   </si>
   <si>
-    <t>Praesent nec euismod ante. Sed sit amet pellentesque mauris. Sed viverra est nibh, vitae rhoncus lacus venenatis at. Mauris eget posuere urna, a dignissim nisl.</t>
-  </si>
-  <si>
-    <t>Mauris sit</t>
-  </si>
-  <si>
     <t>amet lorem</t>
   </si>
   <si>
     <t>sit amet nulla malesuada pulvinar.</t>
   </si>
   <si>
-    <t>Ut et quam a dui imperdiet eleifend vitae eget neque.</t>
-  </si>
-  <si>
     <t>Vestibulum sollicitudin et tortor sed dignissim.</t>
   </si>
   <si>
     <t>Aliquam sit amet urna sollicitudin, fringilla dui ac, imperdiet elit.</t>
   </si>
   <si>
-    <t>"Donec ut libero rutrum, \"porta tortor\" ut, volutpat nulla."</t>
-  </si>
-  <si>
-    <t>"Test choice"</t>
-  </si>
-  <si>
-    <t>Donec ligula nulla, pulvinar a ex suscipit, gravida vulputate orci. Maecenas suscipit nisl vel nibh volutpat varius. Vestibulum turpis sapien, fermentum in tempor in, venenatis vel sapien.</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>取オキ氏給てのぱお名販り冬投夜ワ半, { Random(0, 10) }度えね連開えすむ脳防演ぜ投定携青稿ひーむか梯郵イどで者38内のろざり君二学ヱレ合中クミユオ属抽綱ざきに。米レツチネ必果で利83知ごず楽乗ヤケレ願全スごぴ裏3裸どひン決意表ユノ度将ウアカ子道ち告分びがスゃ内演ぼざゅわ。</t>
-  </si>
-  <si>
-    <t>答サマ下清ぽーた張街どなに枚展フ子索トク騰文サヤマ背用使シルヌウ藤集ロチヤ失背へ座洗ヤルチ型枠イエス稿69那卓捨縦まんらと。</t>
-  </si>
-  <si>
-    <t>児ワトリ本務3本ドぽ開敷さえトは委2左くんみッ同切キルエヤ行愛ぐぴあ肝持砥ヘ場外をご全輝案オセ口泉節急しふかと取自七俊亮凱ざちくゆ。</t>
-  </si>
-  <si>
-    <t>作4振きせ治無づけ</t>
-  </si>
-  <si>
-    <t>次王サミ阪7企っげ真理ノユ恐3手</t>
-  </si>
-  <si>
-    <t>りあぐし計言りけゅく元職ねけり伝宿もゃ甲生わべ。</t>
-  </si>
-  <si>
-    <t>済供際ナ社県わさ真囲イ須生備ミ京5準</t>
-  </si>
-  <si>
-    <t>ネユホ刺三進ょ浜共エサヘ要万ヨムスサ分岡じ言重著菱ラロ農生</t>
-  </si>
-  <si>
-    <t>よな触努ゆづげさ題残び。</t>
-  </si>
-  <si>
-    <t>側チ輸富ハ鉄青フ堂購ソホ権文"ぞゅゆょ収港"すなおで問9断まりつ詐経ざ一</t>
-  </si>
-  <si>
-    <t>速らな設</t>
-  </si>
-  <si>
-    <t>話声コ真禁選またでば車地ょにべ学裏モヒヘ量併ろてう江供ユネスナ止人エケラナ下月京ど新84郷たリ秘最ヲラレ刊行ほひ風国つみしろ馬証ウテ皇馬るぶ。</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>Суждение последовательно. Угловое расстояние, { Random(0, 10) } на первый взгляд, пространственно транспонирует трагический здравый смысл, хотя это явно видно на фотогpафической пластинке, полученной с помощью 1.2-метpового телескопа.</t>
-  </si>
-  <si>
     <t>Звезда на следующий год, когда было лунное затмение и сгорел древний храм Афины в Афинах (при эфоре Питии и афинском архонте Каллии), недоступно решает непреложный натуральный логарифм. Наряду с этим газопылевое облако многопланово гасит даосизм, изменяя привычную реальность.</t>
   </si>
   <si>
-    <t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–50.</t>
-  </si>
-  <si>
-    <t>Антропосоциология творит параметр.</t>
-  </si>
-  <si>
     <t>Суждение преобразует</t>
   </si>
   <si>
     <t>экваториальный перигелий.</t>
   </si>
   <si>
-    <t>Адживика, как принято считать, порождена временем.</t>
-  </si>
-  <si>
     <t>Ощущение мира точно притягивает сложный зенит, отрицая очевидное.</t>
   </si>
   <si>
     <t>После того как тема сформулирована, закон исключённого третьего оценивает трагический реликтовый ледник.</t>
-  </si>
-  <si>
-    <t>"Закон исключённого третьего \"перечеркивает\" центральный позитивизм."</t>
-  </si>
-  <si>
-    <t>"Структурализм изменяем"</t>
-  </si>
-  <si>
-    <t>Страсть ищет гравитационный парадокс. Юлианская дата наблюдаема. Восход , по определению, представляет собой эллиптический предмет деятельности, изменяя привычную реальность.</t>
   </si>
   <si>
     <t># Start
@@ -200,66 +470,12 @@
     <t>@goto .Start</t>
   </si>
   <si>
-    <t>Test input value.</t>
-  </si>
-  <si>
-    <t>"Test summary"</t>
-  </si>
-  <si>
-    <t>"Test value"</t>
-  </si>
-  <si>
-    <t>You've entered: `{i}`.</t>
-  </si>
-  <si>
-    <t>座洗ヤルチ型枠まんらと。</t>
-  </si>
-  <si>
-    <t>冬投夜ワ半</t>
-  </si>
-  <si>
-    <t>ごず楽乗ヤケレ</t>
-  </si>
-  <si>
-    <t>まんらと`{i}`。</t>
-  </si>
-  <si>
-    <t>Тест инпута.</t>
-  </si>
-  <si>
-    <t>"Тестовое заглавие"</t>
-  </si>
-  <si>
-    <t>"Тестовое значение"</t>
-  </si>
-  <si>
-    <t>Вы ввели: `{i}`.</t>
-  </si>
-  <si>
     <t>k: {0}</t>
   </si>
   <si>
     <t>y: {0}</t>
   </si>
   <si>
-    <t>Kohaku</t>
-  </si>
-  <si>
-    <t>Yuko</t>
-  </si>
-  <si>
-    <t>琥珀</t>
-  </si>
-  <si>
-    <t>優子</t>
-  </si>
-  <si>
-    <t>Кохаку</t>
-  </si>
-  <si>
-    <t>Юко</t>
-  </si>
-  <si>
     <t>CGGallery.Title: {0}</t>
   </si>
   <si>
@@ -467,226 +683,10 @@
     <t>VariableInput.Submit: {0}</t>
   </si>
   <si>
-    <t>CG GALLERY</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>HIDE</t>
-  </si>
-  <si>
-    <t>LOAD</t>
-  </si>
-  <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>Q.LOAD</t>
-  </si>
-  <si>
-    <t>Q.SAVE</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>SETTINGS</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>TIPS</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>Select a script to play</t>
-  </si>
-  <si>
-    <t>EXTERNAL SCRIPTS</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>RETURN</t>
-  </si>
-  <si>
-    <t>Are you sure you want to quit to the title screen? Any unsaved game progress will be lost.</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Extra Large</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Very Low</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Very High</t>
-  </si>
-  <si>
-    <t>Ultra</t>
-  </si>
-  <si>
-    <t>Full Screen</t>
-  </si>
-  <si>
-    <t>Full Screen Window</t>
-  </si>
-  <si>
-    <t>Maximized Window</t>
-  </si>
-  <si>
-    <t>Windowed</t>
-  </si>
-  <si>
-    <t>Everything</t>
-  </si>
-  <si>
-    <t>Read Only</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete save slot?</t>
-  </si>
-  <si>
-    <t>Are you sure you want to overwrite save slot?</t>
-  </si>
-  <si>
-    <t>Q. LOAD</t>
-  </si>
-  <si>
-    <t>Auto delay:</t>
-  </si>
-  <si>
-    <t>Font:</t>
-  </si>
-  <si>
-    <t>Font size:</t>
-  </si>
-  <si>
-    <t>Graphics:</t>
-  </si>
-  <si>
-    <t>Language:</t>
-  </si>
-  <si>
-    <t>Message speed:</t>
-  </si>
-  <si>
-    <t>Preview</t>
-  </si>
-  <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc mollis vitae tellus a pharetra. Aenean vitae ipsum in est lobortis vulputate a blandit ipsum. Nullam in felis purus.</t>
   </si>
   <si>
-    <t>Resolution:</t>
-  </si>
-  <si>
-    <t>Screen mode:</t>
-  </si>
-  <si>
-    <t>Skip mode:</t>
-  </si>
-  <si>
-    <t>BASIC</t>
-  </si>
-  <si>
-    <t>SOUND</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>Voice language:</t>
-  </si>
-  <si>
-    <t>Effects volume:</t>
-  </si>
-  <si>
-    <t>Master volume:</t>
-  </si>
-  <si>
-    <t>Music volume:</t>
-  </si>
-  <si>
-    <t>Voice volume:</t>
-  </si>
-  <si>
-    <t>CONTINUE</t>
-  </si>
-  <si>
-    <t>EXIT</t>
-  </si>
-  <si>
-    <t>NEW GAME</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>CGギャラリー</t>
-  </si>
-  <si>
-    <t>継続する</t>
-  </si>
-  <si>
-    <t>出口</t>
-  </si>
-  <si>
-    <t>新しいゲーム</t>
-  </si>
-  <si>
-    <t>設定</t>
-  </si>
-  <si>
-    <t>チップ</t>
-  </si>
-  <si>
-    <t>КАРТИНОЧКИ</t>
-  </si>
-  <si>
-    <t>ПРОДОЛЖИТЬ</t>
-  </si>
-  <si>
-    <t>ВЫХОД</t>
-  </si>
-  <si>
-    <t>НОВАЯ ИГРА</t>
-  </si>
-  <si>
-    <t>НАСТРОЙКИ</t>
-  </si>
-  <si>
-    <t>ЧИПСЫ</t>
+    <t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–66.</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,186 +1047,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1253,74 +1253,74 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1346,41 +1346,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1406,979 +1406,979 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\NaninovelSpreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99455B20-4ABB-4311-B693-807717F82A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6B46C-EAF6-4B73-ABCA-23FCFE51B297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="11145" yWindow="315" windowWidth="29175" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="11145" yWindow="315" windowWidth="29175" windowHeight="20865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Scripts&gt;Script001" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="216">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="216">
   <x:si>
     <x:t>Template</x:t>
   </x:si>
@@ -165,12 +165,6 @@
     <x:t>優子</x:t>
   </x:si>
   <x:si>
-    <x:t>Кохаку</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Юко</x:t>
-  </x:si>
-  <x:si>
     <x:t>CG GALLERY</x:t>
   </x:si>
   <x:si>
@@ -421,6 +415,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc mollis vitae tellus a pharetra. Aenean vitae ipsum in est lobortis vulputate a blandit ipsum. Nullam in felis purus. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Donec ligula nulla, pulvinar a ex suscipit, gravida vulputate orci. Maecenas suscipit nisl vel nibh volutpat varius. Vestibulum turpis sapien, fermentum in tempor in, venenatis vel sapien.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
@@ -432,8 +429,13 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">
-# Label
+# TestLabel
 @resetText
 ; Test comment.
 @printer Wide time:0
@@ -460,12 +462,6 @@
 @goto Script002</x:t>
   </x:si>
   <x:si>
-    <x:t>Donec ligula nulla, pulvinar a ex suscipit, gravida vulputate orci. Maecenas suscipit nisl vel nibh volutpat varius. Vestibulum turpis sapien, fermentum in tempor in, venenatis vel sapien.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–50.</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"># Start
 {0}
 </x:t>
@@ -769,8 +765,702 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–66.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кохан</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Её Величество Юко</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">@spawn Rain wait:false
-{0}[br][i]{1}[spawn ShakePrinter params:,2 wait:false]{2}[skipInput]
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">k: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">y: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CGGallery.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Confirmation.No: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Confirmation.Yes: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Auto: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Hide: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Load: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Log: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Save: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Settings: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Skip: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Tips: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">General.Close: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">General.Return: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Font: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Language: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Continue: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Exit: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Settings: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Tips: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VariableInput.Submit: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">k: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">y: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">CGGallery.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Confirmation.No: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Confirmation.Yes: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Auto: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Hide: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Load: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Log: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Save: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Settings: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Skip: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Tips: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ControlPanel.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">General.Close: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">General.Return: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Font: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Language: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Continue: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Exit: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Settings: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">TitleMenu.Tips: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">VariableInput.Submit: {0}
 </x:t>
   </x:si>
   <x:si>
@@ -1463,8 +2153,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:D14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B5" sqref="B5"/>
+    <x:sheetView topLeftCell="A19" workbookViewId="0">
+      <x:selection activeCell="E4" sqref="E4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +2178,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
@@ -1505,18 +2195,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
@@ -1525,12 +2215,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>5</x:v>
@@ -1547,13 +2237,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1561,18 +2251,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>6</x:v>
@@ -1589,13 +2279,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1603,18 +2293,18 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>7</x:v>
@@ -1628,7 +2318,7 @@
     </x:row>
     <x:row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>8</x:v>
@@ -1642,10 +2332,10 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
         <x:v>21</x:v>
@@ -1656,7 +2346,7 @@
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1694,7 +2384,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>29</x:v>
@@ -1708,7 +2398,7 @@
     </x:row>
     <x:row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>30</x:v>
@@ -1736,7 +2426,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>32</x:v>
@@ -1750,7 +2440,7 @@
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1762,8 +2452,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D5" sqref="D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +2477,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>41</x:v>
@@ -1796,12 +2486,12 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>42</x:v>
@@ -1810,7 +2500,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1847,968 +2537,968 @@
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A7" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A9" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A10" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A15" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A16" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A17" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A18" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A19" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A20" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A21" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A22" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A23" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A24" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A25" s="1" t="s">
-        <x:v>253</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A26" s="1" t="s">
-        <x:v>254</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A27" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A28" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A29" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A30" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A31" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A32" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A33" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A34" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A35" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A36" s="1" t="s">
-        <x:v>264</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A37" s="1" t="s">
-        <x:v>265</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A38" s="1" t="s">
-        <x:v>266</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A39" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A40" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A41" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A42" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A43" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A44" s="1" t="s">
-        <x:v>272</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A45" s="1" t="s">
-        <x:v>273</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A46" s="1" t="s">
-        <x:v>274</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A47" s="1" t="s">
-        <x:v>275</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A48" s="1" t="s">
-        <x:v>276</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A49" s="1" t="s">
-        <x:v>277</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A50" s="1" t="s">
-        <x:v>278</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A51" s="1" t="s">
-        <x:v>279</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A52" s="1" t="s">
-        <x:v>280</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A53" s="1" t="s">
-        <x:v>281</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A54" s="1" t="s">
-        <x:v>282</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A55" s="1" t="s">
-        <x:v>283</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A56" s="1" t="s">
-        <x:v>284</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A57" s="1" t="s">
-        <x:v>285</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A58" s="1" t="s">
-        <x:v>286</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A59" s="1" t="s">
-        <x:v>287</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A60" s="1" t="s">
-        <x:v>288</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A61" s="1" t="s">
-        <x:v>289</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A62" s="1" t="s">
-        <x:v>290</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A63" s="1" t="s">
-        <x:v>291</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A64" s="1" t="s">
-        <x:v>292</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A65" s="1" t="s">
-        <x:v>293</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A66" s="1" t="s">
-        <x:v>294</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A67" s="1" t="s">
-        <x:v>295</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A68" s="1" t="s">
-        <x:v>296</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A69" s="1" t="s">
-        <x:v>297</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A70" s="1" t="s">
-        <x:v>298</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\NaninovelSpreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB6B46C-EAF6-4B73-ABCA-23FCFE51B297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53618DEF-A6E3-449B-8F80-670B0E03BB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="11145" yWindow="315" windowWidth="29175" windowHeight="20865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="11490" yWindow="660" windowWidth="29175" windowHeight="20865" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Scripts&gt;Script001" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="216">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="217">
   <x:si>
     <x:t>Template</x:t>
   </x:si>
@@ -418,6 +418,228 @@
   </x:si>
   <x:si>
     <x:t>Donec ligula nulla, pulvinar a ex suscipit, gravida vulputate orci. Maecenas suscipit nisl vel nibh volutpat varius. Vestibulum turpis sapien, fermentum in tempor in, venenatis vel sapien.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–66.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Кохан</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Её Величество Юко</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>y: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CGGallery.Title: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Confirmation.No: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Confirmation.Yes: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Auto: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Hide: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Load: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Log: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.QuickLoad: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.QuickSave: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Save: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Settings: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Skip: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Tips: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlPanel.Title: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalScriptsBrowser.Info: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalScriptsBrowser.Title: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>General.Close: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>General.Return: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SaveLoadMenu.Tab.Load: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SaveLoadMenu.Tab.QuickLoad: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SaveLoadMenu.Tab.Save: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.AutoDelay: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Font: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.FontSize: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Graphics: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Language: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.MessageSpeed: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Preview: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.PreviewText: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Resolution: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.ScreenMode: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.SkipMode: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Tab.Basic: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Tab.Sound: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.Tab.Text: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.VoiceLanguage: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.VolumeEffects: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.VolumeMaster: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.VolumeMusic: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SettingsMenu.VolumeVoice: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.CGGallery: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.Continue: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.Exit: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.ExternalScripts: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.NewGame: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.Settings: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TitleMenu.Tips: {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VariableInput.Submit: {0}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
@@ -481,297 +703,7 @@
 @goto .Start</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">k: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">y: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CGGallery.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.No: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.Yes: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Auto: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Hide: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Log: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Skip: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Close: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Return: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Font: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Language: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Continue: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Exit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VariableInput.Submit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Космогоническая гипотеза Шмидта позволяет достаточно просто объяснить эту нестыковку, однако ощущение мира колеблет интеллект. Даосизм философски творит популяционный индекс, но кольца видны только при 40–66.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Кохан</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Её Величество Юко</x:t>
+    <x:t>ВВОД</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
@@ -835,290 +767,6 @@
 @goto .Start</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">k: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">y: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CGGallery.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.No: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.Yes: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Auto: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Hide: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Log: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Skip: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Close: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Return: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Font: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Language: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Continue: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Exit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VariableInput.Submit: {0}
-</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
 {0}[i]{1}
 </x:t>
@@ -1178,635 +826,6 @@
   <x:si>
     <x:t xml:space="preserve">
 @goto .Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">k: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">y: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CGGallery.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.No: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.Yes: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Auto: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Hide: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Log: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Skip: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Close: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Return: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Font: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Language: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Continue: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Exit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VariableInput.Submit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@printer Fullscreen
-{0}[i]{1}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@spawn Rain wait:false
-{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-# TestLabel
-@resetText
-; Test comment.
-@printer Wide time:0
-k: {0}[i]{1}[br 2]{2}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
-@choice {0} pos:10,50
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@stop
-@despawn Rain wait:false
-y.Default: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-@goto Script002</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"># Start
-{0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-@input i summary:{0} value:{1}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">@stop
-{0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-@goto .Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">k: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">y: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CGGallery.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.No: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Confirmation.Yes: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Auto: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Hide: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Log: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.QuickSave: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Skip: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ControlPanel.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Info: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ExternalScriptsBrowser.Title: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Close: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">General.Return: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Load: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.QuickLoad: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SaveLoadMenu.Tab.Save: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.AutoDelay: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Font: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.FontSize: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Graphics: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Language: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.MessageSpeed: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Preview: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.PreviewText: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Resolution: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.ScreenMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.SkipMode: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Basic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Sound: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.Tab.Text: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VoiceLanguage: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeEffects: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMaster: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeMusic: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">SettingsMenu.VolumeVoice: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.CGGallery: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Continue: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Exit: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.ExternalScripts: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.NewGame: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Settings: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">TitleMenu.Tips: {0}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">VariableInput.Submit: {0}
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2178,7 +1197,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>382</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
@@ -2206,7 +1225,7 @@
     </x:row>
     <x:row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>383</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
@@ -2215,12 +1234,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>384</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>5</x:v>
@@ -2262,7 +1281,7 @@
     </x:row>
     <x:row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>385</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>6</x:v>
@@ -2304,7 +1323,7 @@
     </x:row>
     <x:row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>386</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>7</x:v>
@@ -2318,7 +1337,7 @@
     </x:row>
     <x:row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>387</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>8</x:v>
@@ -2332,7 +1351,7 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>388</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>129</x:v>
@@ -2346,7 +1365,7 @@
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>389</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2384,7 +1403,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>390</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>29</x:v>
@@ -2398,7 +1417,7 @@
     </x:row>
     <x:row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>391</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>30</x:v>
@@ -2426,7 +1445,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>392</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>32</x:v>
@@ -2440,7 +1459,7 @@
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>393</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2452,7 +1471,7 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0300-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="D5" sqref="D5"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2475,9 +1494,9 @@
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>394</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>41</x:v>
@@ -2486,12 +1505,12 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>395</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>42</x:v>
@@ -2500,7 +1519,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2512,8 +1531,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0400-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:D70"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+    <x:sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <x:selection activeCell="D72" sqref="D72"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,7 +1556,7 @@
     </x:row>
     <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>396</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>45</x:v>
@@ -2551,7 +1570,7 @@
     </x:row>
     <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>397</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>46</x:v>
@@ -2565,7 +1584,7 @@
     </x:row>
     <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>398</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>47</x:v>
@@ -2579,7 +1598,7 @@
     </x:row>
     <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>399</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>48</x:v>
@@ -2593,7 +1612,7 @@
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>400</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>49</x:v>
@@ -2607,7 +1626,7 @@
     </x:row>
     <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A7" s="1" t="s">
-        <x:v>401</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>50</x:v>
@@ -2621,7 +1640,7 @@
     </x:row>
     <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>402</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>51</x:v>
@@ -2635,7 +1654,7 @@
     </x:row>
     <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A9" s="1" t="s">
-        <x:v>403</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
         <x:v>52</x:v>
@@ -2649,7 +1668,7 @@
     </x:row>
     <x:row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A10" s="1" t="s">
-        <x:v>404</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
         <x:v>53</x:v>
@@ -2663,7 +1682,7 @@
     </x:row>
     <x:row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>405</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>54</x:v>
@@ -2677,7 +1696,7 @@
     </x:row>
     <x:row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>406</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>55</x:v>
@@ -2691,7 +1710,7 @@
     </x:row>
     <x:row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>407</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>56</x:v>
@@ -2705,7 +1724,7 @@
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>408</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
         <x:v>57</x:v>
@@ -2719,7 +1738,7 @@
     </x:row>
     <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A15" s="1" t="s">
-        <x:v>409</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
         <x:v>58</x:v>
@@ -2733,7 +1752,7 @@
     </x:row>
     <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A16" s="1" t="s">
-        <x:v>410</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
         <x:v>59</x:v>
@@ -2747,7 +1766,7 @@
     </x:row>
     <x:row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A17" s="1" t="s">
-        <x:v>411</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
         <x:v>60</x:v>
@@ -2761,7 +1780,7 @@
     </x:row>
     <x:row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A18" s="1" t="s">
-        <x:v>412</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
         <x:v>61</x:v>
@@ -2775,7 +1794,7 @@
     </x:row>
     <x:row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A19" s="1" t="s">
-        <x:v>413</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
         <x:v>62</x:v>
@@ -2789,7 +1808,7 @@
     </x:row>
     <x:row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A20" s="1" t="s">
-        <x:v>414</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
         <x:v>63</x:v>
@@ -2803,7 +1822,7 @@
     </x:row>
     <x:row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A21" s="1" t="s">
-        <x:v>415</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
         <x:v>64</x:v>
@@ -2817,7 +1836,7 @@
     </x:row>
     <x:row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A22" s="1" t="s">
-        <x:v>416</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
         <x:v>64</x:v>
@@ -2831,7 +1850,7 @@
     </x:row>
     <x:row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A23" s="1" t="s">
-        <x:v>417</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
         <x:v>65</x:v>
@@ -2845,7 +1864,7 @@
     </x:row>
     <x:row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A24" s="1" t="s">
-        <x:v>418</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
         <x:v>66</x:v>
@@ -2859,7 +1878,7 @@
     </x:row>
     <x:row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A25" s="1" t="s">
-        <x:v>419</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
         <x:v>67</x:v>
@@ -2873,7 +1892,7 @@
     </x:row>
     <x:row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A26" s="1" t="s">
-        <x:v>420</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
         <x:v>68</x:v>
@@ -2887,7 +1906,7 @@
     </x:row>
     <x:row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A27" s="1" t="s">
-        <x:v>421</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
         <x:v>69</x:v>
@@ -2901,7 +1920,7 @@
     </x:row>
     <x:row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A28" s="1" t="s">
-        <x:v>422</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
         <x:v>70</x:v>
@@ -2915,7 +1934,7 @@
     </x:row>
     <x:row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A29" s="1" t="s">
-        <x:v>423</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
         <x:v>71</x:v>
@@ -2929,7 +1948,7 @@
     </x:row>
     <x:row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A30" s="1" t="s">
-        <x:v>424</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
         <x:v>72</x:v>
@@ -2943,7 +1962,7 @@
     </x:row>
     <x:row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A31" s="1" t="s">
-        <x:v>425</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
         <x:v>73</x:v>
@@ -2957,7 +1976,7 @@
     </x:row>
     <x:row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A32" s="1" t="s">
-        <x:v>426</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
         <x:v>74</x:v>
@@ -2971,7 +1990,7 @@
     </x:row>
     <x:row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A33" s="1" t="s">
-        <x:v>427</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
         <x:v>75</x:v>
@@ -2985,7 +2004,7 @@
     </x:row>
     <x:row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A34" s="1" t="s">
-        <x:v>428</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
         <x:v>76</x:v>
@@ -2999,7 +2018,7 @@
     </x:row>
     <x:row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A35" s="1" t="s">
-        <x:v>429</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
         <x:v>77</x:v>
@@ -3013,7 +2032,7 @@
     </x:row>
     <x:row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A36" s="1" t="s">
-        <x:v>430</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
         <x:v>78</x:v>
@@ -3027,7 +2046,7 @@
     </x:row>
     <x:row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A37" s="1" t="s">
-        <x:v>431</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
         <x:v>79</x:v>
@@ -3039,9 +2058,9 @@
         <x:v>79</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <x:row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A38" s="1" t="s">
-        <x:v>432</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
         <x:v>80</x:v>
@@ -3053,9 +2072,9 @@
         <x:v>80</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <x:row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A39" s="1" t="s">
-        <x:v>433</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
         <x:v>81</x:v>
@@ -3067,9 +2086,9 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <x:row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A40" s="1" t="s">
-        <x:v>434</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
         <x:v>82</x:v>
@@ -3081,9 +2100,9 @@
         <x:v>82</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A41" s="1" t="s">
-        <x:v>435</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
         <x:v>50</x:v>
@@ -3095,9 +2114,9 @@
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A42" s="1" t="s">
-        <x:v>436</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
         <x:v>83</x:v>
@@ -3109,9 +2128,9 @@
         <x:v>83</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A43" s="1" t="s">
-        <x:v>437</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
         <x:v>54</x:v>
@@ -3123,9 +2142,9 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A44" s="1" t="s">
-        <x:v>438</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
         <x:v>84</x:v>
@@ -3137,9 +2156,9 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A45" s="1" t="s">
-        <x:v>439</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
         <x:v>85</x:v>
@@ -3151,9 +2170,9 @@
         <x:v>85</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A46" s="1" t="s">
-        <x:v>440</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
         <x:v>86</x:v>
@@ -3165,9 +2184,9 @@
         <x:v>86</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A47" s="1" t="s">
-        <x:v>441</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
         <x:v>87</x:v>
@@ -3179,9 +2198,9 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A48" s="1" t="s">
-        <x:v>442</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
         <x:v>88</x:v>
@@ -3193,9 +2212,9 @@
         <x:v>88</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A49" s="1" t="s">
-        <x:v>443</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
         <x:v>89</x:v>
@@ -3207,9 +2226,9 @@
         <x:v>89</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A50" s="1" t="s">
-        <x:v>444</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
         <x:v>90</x:v>
@@ -3223,7 +2242,7 @@
     </x:row>
     <x:row r="51" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A51" s="1" t="s">
-        <x:v>445</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
         <x:v>128</x:v>
@@ -3235,9 +2254,9 @@
         <x:v>128</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A52" s="1" t="s">
-        <x:v>446</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
         <x:v>91</x:v>
@@ -3249,9 +2268,9 @@
         <x:v>91</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A53" s="1" t="s">
-        <x:v>447</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
         <x:v>92</x:v>
@@ -3263,9 +2282,9 @@
         <x:v>92</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A54" s="1" t="s">
-        <x:v>448</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
         <x:v>93</x:v>
@@ -3277,9 +2296,9 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A55" s="1" t="s">
-        <x:v>449</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
         <x:v>94</x:v>
@@ -3291,9 +2310,9 @@
         <x:v>94</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A56" s="1" t="s">
-        <x:v>450</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
         <x:v>95</x:v>
@@ -3305,9 +2324,9 @@
         <x:v>95</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A57" s="1" t="s">
-        <x:v>451</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
         <x:v>96</x:v>
@@ -3319,9 +2338,9 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A58" s="1" t="s">
-        <x:v>452</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
         <x:v>97</x:v>
@@ -3333,9 +2352,9 @@
         <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A59" s="1" t="s">
-        <x:v>453</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
         <x:v>98</x:v>
@@ -3347,9 +2366,9 @@
         <x:v>98</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A60" s="1" t="s">
-        <x:v>454</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
         <x:v>99</x:v>
@@ -3361,9 +2380,9 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A61" s="1" t="s">
-        <x:v>455</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
         <x:v>100</x:v>
@@ -3375,9 +2394,9 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A62" s="1" t="s">
-        <x:v>456</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B62" s="1" t="s">
         <x:v>101</x:v>
@@ -3389,9 +2408,9 @@
         <x:v>101</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A63" s="1" t="s">
-        <x:v>457</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B63" s="1" t="s">
         <x:v>45</x:v>
@@ -3403,9 +2422,9 @@
         <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A64" s="1" t="s">
-        <x:v>458</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
         <x:v>102</x:v>
@@ -3417,9 +2436,9 @@
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A65" s="1" t="s">
-        <x:v>459</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
         <x:v>103</x:v>
@@ -3431,9 +2450,9 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A66" s="1" t="s">
-        <x:v>460</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B66" s="1" t="s">
         <x:v>60</x:v>
@@ -3445,9 +2464,9 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A67" s="1" t="s">
-        <x:v>461</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B67" s="1" t="s">
         <x:v>104</x:v>
@@ -3459,9 +2478,9 @@
         <x:v>115</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A68" s="1" t="s">
-        <x:v>462</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B68" s="1" t="s">
         <x:v>55</x:v>
@@ -3473,9 +2492,9 @@
         <x:v>116</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A69" s="1" t="s">
-        <x:v>463</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
         <x:v>57</x:v>
@@ -3487,9 +2506,9 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <x:row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A70" s="1" t="s">
-        <x:v>464</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
         <x:v>105</x:v>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -704,6 +704,67 @@
   </x:si>
   <x:si>
     <x:t>ВВОД</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
@@ -1197,7 +1258,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
@@ -1225,7 +1286,7 @@
     </x:row>
     <x:row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
@@ -1239,7 +1300,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>5</x:v>
@@ -1281,7 +1342,7 @@
     </x:row>
     <x:row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>6</x:v>
@@ -1323,7 +1384,7 @@
     </x:row>
     <x:row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>7</x:v>
@@ -1337,7 +1398,7 @@
     </x:row>
     <x:row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>8</x:v>
@@ -1351,7 +1412,7 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>129</x:v>
@@ -1365,7 +1426,7 @@
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1403,7 +1464,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>29</x:v>
@@ -1417,7 +1478,7 @@
     </x:row>
     <x:row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>30</x:v>
@@ -1445,7 +1506,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>239</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>32</x:v>
@@ -1459,7 +1520,7 @@
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>240</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -704,6 +704,250 @@
   </x:si>
   <x:si>
     <x:t>ВВОД</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto .Start</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">@printer Fullscreen
@@ -1258,7 +1502,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>241</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>3</x:v>
@@ -1286,7 +1530,7 @@
     </x:row>
     <x:row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
@@ -1300,7 +1544,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>5</x:v>
@@ -1342,7 +1586,7 @@
     </x:row>
     <x:row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>6</x:v>
@@ -1384,7 +1628,7 @@
     </x:row>
     <x:row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>7</x:v>
@@ -1398,7 +1642,7 @@
     </x:row>
     <x:row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>246</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>8</x:v>
@@ -1412,7 +1656,7 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>247</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>129</x:v>
@@ -1426,7 +1670,7 @@
     </x:row>
     <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>248</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1464,7 +1708,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>249</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>29</x:v>
@@ -1478,7 +1722,7 @@
     </x:row>
     <x:row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>250</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>30</x:v>
@@ -1506,7 +1750,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>251</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>32</x:v>
@@ -1520,7 +1764,7 @@
     </x:row>
     <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>252</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\NaninovelSpreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2686EEA-69A1-467F-8F30-18391045E03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B26F7-B1FC-4A70-B6FB-DBF6314BC457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11550" yWindow="1095" windowWidth="30300" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="1095" windowWidth="30300" windowHeight="19950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts&gt;Script001" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="222">
   <si>
     <t>Template</t>
   </si>
@@ -622,6 +622,36 @@
   </si>
   <si>
     <t>VariableInput.Submit: {0}</t>
+  </si>
+  <si>
+    <t>"\{ { Random(0, 10) } \}"</t>
+  </si>
+  <si>
+    <t>You've entered: \[`{i}`\].</t>
+  </si>
+  <si>
+    <t>まんらと\[`{i}`\]。</t>
+  </si>
+  <si>
+    <t>Вы ввели: \[`{i}`\].</t>
+  </si>
+  <si>
+    <t>ЗВУК</t>
+  </si>
+  <si>
+    <t>ТЕКСТ</t>
+  </si>
+  <si>
+    <t>ОСНОВНЫЕ</t>
+  </si>
+  <si>
+    <t>取オキ氏給てのぱお名販り冬投夜ワ半, { Random(0, 11) }度えね連開えすむ脳防演ぜ投定携青稿ひーむか梯郵イどで者38内のろざり君二学ヱレ合中クミユオ属抽綱ざきに。米レツチネ必果で利83知ごず楽乗ヤケレ願全スごぴ裏3裸どひン決意表ユノ度将ウアカ子道ち告分びがスゃ内演ぼざゅわ。</t>
+  </si>
+  <si>
+    <t>Суждение последовательно. Угловое расстояние, { Random(0, 11) } на первый взгляд, пространственно транспонирует трагический здравый смысл, хотя это явно видно на фотогpафической пластинке, полученной с помощью 1.2-метpового телескопа.</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, { Random(0, 11) } consectetur adipiscing elit. Fusce ut mauris sem. Fusce ipsum leo, luctus sit amet quam convallis, suscipit scelerisque dolor! Maecenas sit amet pulvinar felis, sed aliquam est. Mauris tincidunt tincidunt sapien non dictum. In quis mauris nibh.</t>
   </si>
   <si>
     <t xml:space="preserve">@printer Fullscreen
@@ -670,9 +700,6 @@
 @goto Script002</t>
   </si>
   <si>
-    <t>"\{ { Random(0, 10) } \}"</t>
-  </si>
-  <si>
     <t xml:space="preserve"># Start
 {0}
 </t>
@@ -692,31 +719,7 @@
 @goto .Start</t>
   </si>
   <si>
-    <t>You've entered: \[`{i}`\].</t>
-  </si>
-  <si>
-    <t>まんらと\[`{i}`\]。</t>
-  </si>
-  <si>
-    <t>Вы ввели: \[`{i}`\].</t>
-  </si>
-  <si>
-    <t>ЗВУК</t>
-  </si>
-  <si>
-    <t>ТЕКСТ</t>
-  </si>
-  <si>
-    <t>ОСНОВНЫЕ</t>
-  </si>
-  <si>
-    <t>取オキ氏給てのぱお名販り冬投夜ワ半, { Random(0, 11) }度えね連開えすむ脳防演ぜ投定携青稿ひーむか梯郵イどで者38内のろざり君二学ヱレ合中クミユオ属抽綱ざきに。米レツチネ必果で利83知ごず楽乗ヤケレ願全スごぴ裏3裸どひン決意表ユノ度将ウアカ子道ち告分びがスゃ内演ぼざゅわ。</t>
-  </si>
-  <si>
-    <t>Суждение последовательно. Угловое расстояние, { Random(0, 11) } на первый взгляд, пространственно транспонирует трагический здравый смысл, хотя это явно видно на фотогpафической пластинке, полученной с помощью 1.2-метpового телескопа.</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, { Random(0, 11) } consectetur adipiscing elit. Fusce ut mauris sem. Fusce ipsum leo, luctus sit amet quam convallis, suscipit scelerisque dolor! Maecenas sit amet pulvinar felis, sed aliquam est. Mauris tincidunt tincidunt sapien non dictum. In quis mauris nibh.</t>
+    <t>Язык озвучки:</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1088,16 +1091,16 @@
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -1116,7 +1119,7 @@
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1214,7 +1217,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1228,10 +1231,10 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
         <v>123</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1350,21 +1353,21 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1436,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2215,7 @@
         <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>89</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,7 +2243,7 @@
         <v>90</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,7 +2257,7 @@
         <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\NaninovelSpreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B26F7-B1FC-4A70-B6FB-DBF6314BC457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD348AB3-7093-49DB-8F52-89E164FC8726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11550" yWindow="1095" windowWidth="30300" windowHeight="19950" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
   <si>
     <t>Template</t>
   </si>
@@ -720,6 +720,45 @@
   </si>
   <si>
     <t>Язык озвучки:</t>
+  </si>
+  <si>
+    <t>Мелкий</t>
+  </si>
+  <si>
+    <t>Крупный</t>
+  </si>
+  <si>
+    <t>Очень крупный</t>
+  </si>
+  <si>
+    <t>Стандартный</t>
+  </si>
+  <si>
+    <t>Всё</t>
+  </si>
+  <si>
+    <t>Прочитанное</t>
+  </si>
+  <si>
+    <t>Очень низкое</t>
+  </si>
+  <si>
+    <t>Низкое</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Высокое</t>
+  </si>
+  <si>
+    <t>Очень высокое</t>
+  </si>
+  <si>
+    <t>Ультра</t>
+  </si>
+  <si>
+    <t>Вы уверены что хотите удалить слот сохранения?</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1778,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1753,7 +1792,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1767,7 +1806,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1781,7 +1820,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1795,7 +1834,7 @@
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1809,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1823,7 +1862,7 @@
         <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1837,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1851,7 +1890,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1865,7 +1904,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1879,7 +1918,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1949,7 +1988,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1963,7 +2002,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1991,7 +2030,7 @@
         <v>75</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\Naninovel\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E2ACAD-2213-4901-862D-01D82D5EDC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFA7997-2195-48C0-A02B-FCCF6B34F78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="660" windowWidth="30300" windowHeight="19950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="465" windowWidth="29430" windowHeight="20130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts&gt;Script001" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="244">
   <si>
     <t>Template</t>
   </si>
@@ -695,6 +695,18 @@
   </si>
   <si>
     <t>Вы уверены что хотите удалить слот сохранения?</t>
+  </si>
+  <si>
+    <t>@stop</t>
+  </si>
+  <si>
+    <t>Test script in subfolder.</t>
+  </si>
+  <si>
+    <t>Тестовый скрипт в подпапке.</t>
+  </si>
+  <si>
+    <t>サブフォルダーでスクリプトをテストします。</t>
   </si>
   <si>
     <t xml:space="preserve">@printer Fullscreen
@@ -729,7 +741,11 @@
   </si>
   <si>
     <t xml:space="preserve">@char Kohaku pos:10,50,-1
-@choice {0} pos:10,50
+@toast {0} time:1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@choice {0} pos:10,50
 </t>
   </si>
   <si>
@@ -743,6 +759,9 @@
 @goto Script002</t>
   </si>
   <si>
+    <t>"Lorem ipsum"</t>
+  </si>
+  <si>
     <t xml:space="preserve"># Start
 {0}
 </t>
@@ -767,16 +786,10 @@
 </t>
   </si>
   <si>
-    <t>@stop</t>
-  </si>
-  <si>
-    <t>Test script in subfolder.</t>
-  </si>
-  <si>
-    <t>Тестовый скрипт в подпапке.</t>
-  </si>
-  <si>
-    <t>サブフォルダーでスクリプトをテストします。</t>
+    <t>"Реликтовый ледник"</t>
+  </si>
+  <si>
+    <t>遺物氷河</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B14E23-E089-464E-BEA1-58428DA8F9CD}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1167,7 @@
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>207</v>
@@ -1182,7 +1195,7 @@
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1196,7 +1209,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1238,7 +1251,7 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1280,7 +1293,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1294,7 +1307,7 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>198</v>
@@ -1308,35 +1321,49 @@
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1401,7 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1388,7 +1415,7 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1416,7 +1443,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -1430,7 +1457,7 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED72B03-3C72-430B-8618-1768E3B869AD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1471,21 +1498,21 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>

--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elringus\Documents\UnityProjects\Naninovel\Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFA7997-2195-48C0-A02B-FCCF6B34F78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AFEF55-6465-44DF-B950-0C7E8725C1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="465" windowWidth="29430" windowHeight="20130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="1515" windowWidth="24675" windowHeight="18930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts&gt;Script001" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Scripts&gt;Subfolder&gt;Script003" sheetId="6" r:id="rId3"/>
     <sheet name="Text&gt;CharacterNames" sheetId="4" r:id="rId4"/>
     <sheet name="Text&gt;DefaultUI" sheetId="5" r:id="rId5"/>
+    <sheet name="Text&gt;Script" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="256">
   <si>
     <t>Template</t>
   </si>
@@ -707,6 +708,39 @@
   </si>
   <si>
     <t>サブフォルダーでスクリプトをテストします。</t>
+  </si>
+  <si>
+    <t>"Lorem ipsum"</t>
+  </si>
+  <si>
+    <t>"Реликтовый ледник"</t>
+  </si>
+  <si>
+    <t>遺物氷河</t>
+  </si>
+  <si>
+    <t>t_Foo: {0}</t>
+  </si>
+  <si>
+    <t>t_Bar: {0}</t>
+  </si>
+  <si>
+    <t>Foo</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>ふぉお</t>
+  </si>
+  <si>
+    <t>Фу</t>
+  </si>
+  <si>
+    <t>ばら</t>
+  </si>
+  <si>
+    <t>Бар</t>
   </si>
   <si>
     <t xml:space="preserve">@printer Fullscreen
@@ -756,10 +790,15 @@
   </si>
   <si>
     <t xml:space="preserve">
+{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 @goto Script002</t>
   </si>
   <si>
-    <t>"Lorem ipsum"</t>
+    <t>Value of t_Foo: {t_Foo}, value of t_Bar: {t_Bar}.</t>
   </si>
   <si>
     <t xml:space="preserve"># Start
@@ -786,10 +825,10 @@
 </t>
   </si>
   <si>
-    <t>"Реликтовый ледник"</t>
-  </si>
-  <si>
-    <t>遺物氷河</t>
+    <t>Значение t_Foo: {t_Foo}, значениеf t_Bar: {t_Bar}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t_Foo の値: {t_Foo},  t_Bar の値: {t_Bar}.</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B14E23-E089-464E-BEA1-58428DA8F9CD}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1206,7 @@
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>207</v>
@@ -1195,7 +1234,7 @@
     </row>
     <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1209,7 +1248,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1251,7 +1290,7 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -1293,7 +1332,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1307,35 +1346,35 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1349,7 +1388,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>123</v>
@@ -1363,7 +1402,21 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1454,7 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1415,7 +1468,7 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1443,7 +1496,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -1457,7 +1510,7 @@
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1551,7 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>223</v>
@@ -2579,4 +2632,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -887,6 +887,85 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">t_Foo の値: {t_Foo},  t_Bar の値: {t_Bar}.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"># Start
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@input i summary:{0} value:{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script003</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@printer Fullscreen
+{0}[i]{1}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@spawn Rain wait:false
+{0}[br][i]{1}[spawn ShakePrinter params:,1 wait:false]{2}[skipInput]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+# TestLabel
+@resetText 
+; Test comment.
+@printer Wide time:0
+k: {0}[i]{1}[br 2]{2}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0} speed:0.5 default:false
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@print {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@char Kohaku pos:10,50,-1
+@toast {0} time:1
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@choice {0} pos:10,50
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">@stop
+@despawn Rain wait:false
+y.Default: {0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{0}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+@goto Script002</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"># Start
@@ -1288,7 +1367,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>256</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>207</x:v>
@@ -1316,7 +1395,7 @@
     </x:row>
     <x:row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1" t="s">
-        <x:v>257</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>3</x:v>
@@ -1330,7 +1409,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>4</x:v>
@@ -1372,7 +1451,7 @@
     </x:row>
     <x:row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1" t="s">
-        <x:v>259</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>5</x:v>
@@ -1414,7 +1493,7 @@
     </x:row>
     <x:row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A11" s="1" t="s">
-        <x:v>260</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
         <x:v>6</x:v>
@@ -1428,7 +1507,7 @@
     </x:row>
     <x:row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A12" s="1" t="s">
-        <x:v>261</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
         <x:v>198</x:v>
@@ -1442,7 +1521,7 @@
     </x:row>
     <x:row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A13" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>226</x:v>
@@ -1456,7 +1535,7 @@
     </x:row>
     <x:row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A14" s="1" t="s">
-        <x:v>263</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B14" t="s">
         <x:v>7</x:v>
@@ -1470,7 +1549,7 @@
     </x:row>
     <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A15" t="s">
-        <x:v>264</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B15" t="s">
         <x:v>123</x:v>
@@ -1484,7 +1563,7 @@
     </x:row>
     <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A16" t="s">
-        <x:v>265</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B16" t="s">
         <x:v>248</x:v>
@@ -1498,7 +1577,7 @@
     </x:row>
     <x:row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A17" t="s">
-        <x:v>266</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1536,7 +1615,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1" t="s">
-        <x:v>268</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>26</x:v>
@@ -1550,7 +1629,7 @@
     </x:row>
     <x:row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1" t="s">
-        <x:v>269</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>27</x:v>
@@ -1578,7 +1657,7 @@
     </x:row>
     <x:row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1" t="s">
-        <x:v>270</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
         <x:v>199</x:v>
@@ -1592,7 +1671,7 @@
     </x:row>
     <x:row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1" t="s">
-        <x:v>271</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1633,7 +1712,7 @@
     </x:row>
     <x:row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <x:c r="A2" s="4" t="s">
-        <x:v>272</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B2" s="4" t="s">
         <x:v>223</x:v>
